--- a/en/downloads/data-excel/1.4.1.xlsx
+++ b/en/downloads/data-excel/1.4.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Working\ЦЕЛИ УСТОЙЧИВОГО РАЗВИТИЯ\ПОКАЗАТЕЛИ ЦУР 2020\Глобальные показатели ЦУР\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\Показатели ЦУР для Платформы\Глобальные показатели ЦУР\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -71,15 +71,6 @@
     <t>1.4.1 Proportion of population living in households with access to basic services</t>
   </si>
   <si>
-    <t>According to Multiple Indicator Cluster Survey,2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Көп индикаторлуу кластердик изилдөөнүн маалыматтары боюнча, 2018-ж.</t>
-  </si>
-  <si>
-    <t>По данным много индикаторного кластерного обследования, 2018г.</t>
-  </si>
-  <si>
     <t>Баткен облусу</t>
   </si>
   <si>
@@ -309,6 +300,15 @@
   </si>
   <si>
     <t>Үй-бүлө башчыснын билими</t>
+  </si>
+  <si>
+    <t>По данным много индикаторного кластерного обследования, 2018г., 2023г.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Көп индикаторлуу кластердик изилдөөнүн маалыматтары боюнча, 2018-ж., 2023ж.</t>
+  </si>
+  <si>
+    <t>According to Multiple Indicator Cluster Survey, 2018, 2023.</t>
   </si>
 </sst>
 </file>
@@ -525,9 +525,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -539,6 +536,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -822,11 +822,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D112"/>
+  <dimension ref="A1:E112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -834,18 +832,18 @@
     <col min="3" max="3" width="40.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>57</v>
+      <c r="B1" s="23" t="s">
+        <v>54</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -856,8 +854,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -870,10 +868,13 @@
       <c r="D4" s="2">
         <v>2018</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="E4" s="2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>6</v>
@@ -884,337 +885,405 @@
       <c r="D5" s="13">
         <v>92.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="13">
+        <v>95.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D6" s="6">
         <v>72.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D7" s="15">
         <v>86</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="15">
+        <v>92.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D8" s="6">
         <v>98.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="6">
+        <v>97.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D9" s="6">
         <v>97.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="6">
+        <v>98.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D10" s="6">
         <v>88.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="6">
+        <v>97.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D11" s="6">
         <v>98.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="6">
+        <v>99.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12" s="6">
         <v>98.9</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="6">
+        <v>99.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D13" s="15">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D14" s="6">
         <v>98.8</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="E14" s="6">
+        <v>98.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D16" s="6">
         <v>99.6</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="6">
+        <v>99.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D17" s="6">
         <v>88.7</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="6">
+        <v>94.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D19" s="15">
         <v>83</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="15">
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D20" s="6">
         <v>93.2</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="6">
+        <v>95.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D21" s="6">
         <v>89.7</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="6">
+        <v>94.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D22" s="6">
         <v>94.4</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="6">
+        <v>96.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D23" s="6">
         <v>97.2</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="6">
+        <v>98.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>66</v>
+        <v>62</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>63</v>
       </c>
       <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>85</v>
+        <v>49</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>82</v>
       </c>
       <c r="D25" s="6">
         <v>76.900000000000006</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="6">
+        <v>87.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>86</v>
+        <v>50</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>83</v>
       </c>
       <c r="D26" s="6">
         <v>92.7</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="6">
+        <v>93.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>87</v>
+        <v>51</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>84</v>
       </c>
       <c r="D27" s="6">
         <v>94.8</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="6">
+        <v>98.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>88</v>
+        <v>52</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>85</v>
       </c>
       <c r="D28" s="6">
         <v>98.7</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="6">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>89</v>
+        <v>53</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>86</v>
       </c>
       <c r="D29" s="15">
         <v>100</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="E29" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>12</v>
       </c>
@@ -1227,337 +1296,403 @@
       <c r="D30" s="16">
         <v>96.3</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="16">
+        <v>97.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D31" s="6">
         <v>99.6</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D32" s="6">
         <v>93.4</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="6">
+        <v>98.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D33" s="6">
         <v>99.1</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="6">
+        <v>98.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D34" s="6">
         <v>99.4</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="6">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D35" s="6">
         <v>99.1</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="6">
+        <v>97.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D36" s="6">
         <v>99.8</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="6">
+        <v>97.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D37" s="6">
         <v>91.6</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="6">
+        <v>99.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D38" s="6">
         <v>95.7</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="6">
+        <v>97.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D39" s="6">
         <v>96.8</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="6">
+        <v>90.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D41" s="6">
         <v>96.1</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="6">
+        <v>96.7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D42" s="6">
         <v>96.5</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D44" s="6">
         <v>92.1</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="6">
+        <v>91.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D45" s="6">
         <v>94.7</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="6">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D46" s="6">
         <v>97.4</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="6">
+        <v>97.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D47" s="6">
         <v>96.6</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="6">
+        <v>97.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D48" s="6">
         <v>95.1</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C50" s="26" t="s">
-        <v>85</v>
+        <v>49</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>82</v>
       </c>
       <c r="D50" s="6">
         <v>97.2</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="6">
+        <v>95.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C51" s="26" t="s">
-        <v>86</v>
+        <v>50</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>83</v>
       </c>
       <c r="D51" s="6">
         <v>95.9</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="6">
+        <v>97.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C52" s="26" t="s">
-        <v>87</v>
+        <v>51</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>84</v>
       </c>
       <c r="D52" s="6">
         <v>96.5</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="6">
+        <v>98.8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C53" s="26" t="s">
-        <v>88</v>
+        <v>52</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>85</v>
       </c>
       <c r="D53" s="6">
         <v>96.4</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C54" s="26" t="s">
-        <v>89</v>
+        <v>53</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>86</v>
       </c>
       <c r="D54" s="17">
         <v>95.7</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="E54" s="17">
+        <v>97.6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B55" s="19" t="s">
         <v>8</v>
@@ -1568,346 +1703,415 @@
       <c r="D55" s="21">
         <v>98.2</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="21">
+        <v>98.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D56" s="17">
         <v>99.4</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="17">
+        <v>94.8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D57" s="17">
         <v>99.1</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" s="17">
+        <v>98.6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D58" s="22">
         <v>99</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="22">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D59" s="17">
         <v>97.6</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="17">
+        <v>98.6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D60" s="17">
         <v>98.4</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="17">
+        <v>98.9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D61" s="17">
         <v>99.3</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="17">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D62" s="17">
         <v>99.3</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" s="17">
+        <v>98.7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D63" s="17">
         <v>95.3</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" s="17">
+        <v>96.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D64" s="17">
         <v>98.3</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" s="17">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D65" s="17"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" s="17"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D66" s="17">
         <v>96.6</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" s="17">
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D67" s="17">
         <v>99.1</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" s="17">
+        <v>98.9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D68" s="17"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" s="17"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D69" s="17">
         <v>99.7</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" s="17">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D70" s="17">
         <v>98.6</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" s="17">
+        <v>99.1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D71" s="17">
         <v>97.8</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" s="17">
+        <v>98.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D72" s="17">
         <v>98.3</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" s="17">
+        <v>98.6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D73" s="17">
         <v>98.6</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" s="17">
+        <v>97.9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C74" s="25" t="s">
-        <v>66</v>
+        <v>62</v>
+      </c>
+      <c r="C74" s="24" t="s">
+        <v>63</v>
       </c>
       <c r="D74" s="17"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" s="17"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C75" s="26" t="s">
-        <v>85</v>
+        <v>49</v>
+      </c>
+      <c r="C75" s="25" t="s">
+        <v>82</v>
       </c>
       <c r="D75" s="17">
         <v>97.9</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" s="17">
+        <v>96.7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C76" s="26" t="s">
-        <v>86</v>
+        <v>50</v>
+      </c>
+      <c r="C76" s="25" t="s">
+        <v>83</v>
       </c>
       <c r="D76" s="17">
         <v>99.2</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" s="17">
+        <v>98.6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C77" s="26" t="s">
-        <v>87</v>
+        <v>51</v>
+      </c>
+      <c r="C77" s="25" t="s">
+        <v>84</v>
       </c>
       <c r="D77" s="17">
         <v>98.6</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" s="17">
+        <v>97.8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C78" s="26" t="s">
-        <v>88</v>
+        <v>52</v>
+      </c>
+      <c r="C78" s="25" t="s">
+        <v>85</v>
       </c>
       <c r="D78" s="22">
         <v>97</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E78" s="22">
+        <v>98.9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C79" s="27" t="s">
-        <v>89</v>
+        <v>53</v>
+      </c>
+      <c r="C79" s="26" t="s">
+        <v>86</v>
       </c>
       <c r="D79" s="7">
         <v>98.4</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="E79" s="7">
+        <v>99.3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C80" s="23" t="s">
-        <v>15</v>
+        <v>92</v>
+      </c>
+      <c r="C80" s="27" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
